--- a/Dynare/SM_Germany_transformed_data_raw.xlsx
+++ b/Dynare/SM_Germany_transformed_data_raw.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Single Author\Github_fresh\Single_Author_fresh\Dynare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD6AE3D2-DE00-4834-9444-0642CBDCA4A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837CAEBC-E9CA-487D-B768-C88E5436D6CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0CBD503A-8EF0-4F69-AF48-961D6C75E544}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>counter</t>
   </si>
@@ -60,6 +60,15 @@
   </si>
   <si>
     <t>robs</t>
+  </si>
+  <si>
+    <t>nc</t>
+  </si>
+  <si>
+    <t>alphaobs</t>
+  </si>
+  <si>
+    <t>lambdaobs</t>
   </si>
 </sst>
 </file>
@@ -411,15 +420,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE4D0173-A9A6-484E-A165-8B405595275B}">
-  <dimension ref="A1:H94"/>
+  <dimension ref="A1:K77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -444,8 +453,17 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -471,7 +489,7 @@
         <v>4.2629999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -497,7 +515,7 @@
         <v>4.7375999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -523,7 +541,7 @@
         <v>5.0241666666666696</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -549,7 +567,7 @@
         <v>4.7450333333333301</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -575,7 +593,7 @@
         <v>4.5907666666666698</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -600,8 +618,17 @@
       <c r="H7">
         <v>4.2678333333333303</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <v>-0.29780662296474159</v>
+      </c>
+      <c r="J7">
+        <v>2.83018867924528E-2</v>
+      </c>
+      <c r="K7">
+        <v>7.0898507829306504E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -626,8 +653,17 @@
       <c r="H8">
         <v>3.4434999999999998</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <v>-0.44206663452866274</v>
+      </c>
+      <c r="J8">
+        <v>1.4681892332789499E-2</v>
+      </c>
+      <c r="K8">
+        <v>1.8680003928966499E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -652,8 +688,17 @@
       <c r="H9">
         <v>3.3622333333333301</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <v>-0.19909952404918804</v>
+      </c>
+      <c r="J9">
+        <v>1.95729537366548E-2</v>
+      </c>
+      <c r="K9">
+        <v>-1.640168730929349E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -678,8 +723,17 @@
       <c r="H10">
         <v>3.4460000000000002</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <v>0.14557564315999055</v>
+      </c>
+      <c r="J10">
+        <v>8.8757396449704005E-3</v>
+      </c>
+      <c r="K10">
+        <v>5.1258138954636513E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -704,8 +758,17 @@
       <c r="H11">
         <v>3.3573333333333299</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <v>0.19319326387034536</v>
+      </c>
+      <c r="J11">
+        <v>1.7152658662092601E-2</v>
+      </c>
+      <c r="K11">
+        <v>9.413880231766528E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -730,8 +793,17 @@
       <c r="H12">
         <v>3.1088</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12">
+        <v>0.42188154537652583</v>
+      </c>
+      <c r="J12">
+        <v>1.11731843575419E-2</v>
+      </c>
+      <c r="K12">
+        <v>1.4401151154764899E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -756,8 +828,17 @@
       <c r="H13">
         <v>2.6831</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13">
+        <v>0.28296296501385182</v>
+      </c>
+      <c r="J13">
+        <v>1.13851992409867E-2</v>
+      </c>
+      <c r="K13">
+        <v>-2.2996706332634971E-5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -782,8 +863,17 @@
       <c r="H14">
         <v>2.3618999999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14">
+        <v>-0.58679639372876524</v>
+      </c>
+      <c r="J14">
+        <v>2.0242914979756998E-3</v>
+      </c>
+      <c r="K14">
+        <v>-2.5282525121703478E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -808,8 +898,17 @@
       <c r="H15">
         <v>2.1392333333333302</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15">
+        <v>0.57521547137106532</v>
+      </c>
+      <c r="J15">
+        <v>2.8708133971291801E-2</v>
+      </c>
+      <c r="K15">
+        <v>3.955425356701651E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -834,8 +933,17 @@
       <c r="H16">
         <v>2.14963333333333</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16">
+        <v>-5.8784070256435485E-4</v>
+      </c>
+      <c r="J16">
+        <v>2.6246719160104002E-3</v>
+      </c>
+      <c r="K16">
+        <v>-5.2485123588423489E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -860,8 +968,17 @@
       <c r="H17">
         <v>2.06293333333333</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17">
+        <v>0.12752342467710517</v>
+      </c>
+      <c r="J17">
+        <v>7.6923076923075999E-3</v>
+      </c>
+      <c r="K17">
+        <v>-9.2246412019431946E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -886,8 +1003,17 @@
       <c r="H18">
         <v>2.08246666666667</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18">
+        <v>0.42721340501690502</v>
+      </c>
+      <c r="J18">
+        <v>1.1933174224343601E-2</v>
+      </c>
+      <c r="K18">
+        <v>-7.7627950697214032E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -912,8 +1038,17 @@
       <c r="H19">
         <v>2.1162999999999998</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19">
+        <v>0.34476988981732731</v>
+      </c>
+      <c r="J19">
+        <v>2.6252983293556E-2</v>
+      </c>
+      <c r="K19">
+        <v>-7.504520659277281E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -938,8 +1073,17 @@
       <c r="H20">
         <v>2.1636000000000002</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20">
+        <v>-8.9448072582962723E-2</v>
+      </c>
+      <c r="J20">
+        <v>1.2949640287769701E-2</v>
+      </c>
+      <c r="K20">
+        <v>4.9954248299617209E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -964,8 +1108,17 @@
       <c r="H21">
         <v>2.1402999999999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21">
+        <v>-0.28201360635272588</v>
+      </c>
+      <c r="J21">
+        <v>1.47874306839186E-2</v>
+      </c>
+      <c r="K21">
+        <v>-3.8720453891218651E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -990,8 +1143,17 @@
       <c r="H22">
         <v>2.1246</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22">
+        <v>7.5814477589635498E-2</v>
+      </c>
+      <c r="J22">
+        <v>1.5810276679841799E-2</v>
+      </c>
+      <c r="K22">
+        <v>-4.0275324866236522E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1016,8 +1178,17 @@
       <c r="H23">
         <v>2.1303333333333301</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23">
+        <v>0.58164400513937464</v>
+      </c>
+      <c r="J23">
+        <v>1.8218623481781299E-2</v>
+      </c>
+      <c r="K23">
+        <v>-7.2438489150726971E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1042,8 +1213,17 @@
       <c r="H24">
         <v>2.3434666666666701</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24">
+        <v>0.89999475638406301</v>
+      </c>
+      <c r="J24">
+        <v>8.1300813008130003E-3</v>
+      </c>
+      <c r="K24">
+        <v>-2.248849575249156E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1068,8 +1248,17 @@
       <c r="H25">
         <v>2.6115666666666701</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25">
+        <v>0.89363730891417681</v>
+      </c>
+      <c r="J25">
+        <v>3.6948748510131101E-2</v>
+      </c>
+      <c r="K25">
+        <v>7.6915902714604697E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1094,8 +1283,17 @@
       <c r="H26">
         <v>2.8895</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26">
+        <v>2.0425168182780711</v>
+      </c>
+      <c r="J26">
+        <v>1.22511485451761E-2</v>
+      </c>
+      <c r="K26">
+        <v>-2.957339256312991E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1120,8 +1318,17 @@
       <c r="H27">
         <v>3.22136666666667</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27">
+        <v>1.6501609324281004</v>
+      </c>
+      <c r="J27">
+        <v>2.5568181818181799E-2</v>
+      </c>
+      <c r="K27">
+        <v>3.9219164447713352E-5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1146,8 +1353,17 @@
       <c r="H28">
         <v>3.59446666666667</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28">
+        <v>1.6792446328378774</v>
+      </c>
+      <c r="J28">
+        <v>2.1381578947368401E-2</v>
+      </c>
+      <c r="K28">
+        <v>-4.4631556421052847E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1172,8 +1388,17 @@
       <c r="H29">
         <v>3.82033333333333</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29">
+        <v>0.99094376484976909</v>
+      </c>
+      <c r="J29">
+        <v>2.1558872305140898E-2</v>
+      </c>
+      <c r="K29">
+        <v>-5.2174720875317005E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1198,8 +1423,17 @@
       <c r="H30">
         <v>4.06483333333333</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30">
+        <v>2.0196432415534762</v>
+      </c>
+      <c r="J30">
+        <v>1.9607843137254902E-2</v>
+      </c>
+      <c r="K30">
+        <v>-4.633708228223741E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1224,8 +1458,17 @@
       <c r="H31">
         <v>4.5004999999999997</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I31">
+        <v>0.91309507732248163</v>
+      </c>
+      <c r="J31">
+        <v>2.1956087824351201E-2</v>
+      </c>
+      <c r="K31">
+        <v>-8.4005614462853663E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1250,8 +1493,17 @@
       <c r="H32">
         <v>4.7247666666666701</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32">
+        <v>5.148850930632503E-2</v>
+      </c>
+      <c r="J32">
+        <v>3.7453183520599E-3</v>
+      </c>
+      <c r="K32">
+        <v>5.0187828903908453E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1276,8 +1528,17 @@
       <c r="H33">
         <v>4.4800000000000004</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33">
+        <v>0.26370297826915345</v>
+      </c>
+      <c r="J33">
+        <v>2.51366120218579E-2</v>
+      </c>
+      <c r="K33">
+        <v>7.4107691681232985E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1302,8 +1563,17 @@
       <c r="H34">
         <v>4.86046666666667</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I34">
+        <v>0.54952554420086119</v>
+      </c>
+      <c r="J34">
+        <v>3.1408308004052601E-2</v>
+      </c>
+      <c r="K34">
+        <v>5.5658351564682551E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1328,8 +1598,17 @@
       <c r="H35">
         <v>4.9817999999999998</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I35">
+        <v>0.77906318458650681</v>
+      </c>
+      <c r="J35">
+        <v>2.17560217560217E-2</v>
+      </c>
+      <c r="K35">
+        <v>1.539713992903338E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1354,8 +1633,17 @@
       <c r="H36">
         <v>4.2146666666666697</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I36">
+        <v>0.33855586518030456</v>
+      </c>
+      <c r="J36">
+        <v>2.87037037037037E-2</v>
+      </c>
+      <c r="K36">
+        <v>1.002371146032893E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1380,8 +1668,17 @@
       <c r="H37">
         <v>2.0116999999999998</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I37">
+        <v>-3.3125017886588524E-2</v>
+      </c>
+      <c r="J37">
+        <v>1.16580310880829E-2</v>
+      </c>
+      <c r="K37">
+        <v>3.221641206023977E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1406,8 +1703,17 @@
       <c r="H38">
         <v>1.31063333333333</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I38">
+        <v>-0.61890263294288783</v>
+      </c>
+      <c r="J38">
+        <v>4.9342105263156999E-3</v>
+      </c>
+      <c r="K38">
+        <v>-2.9458180429699378E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1432,8 +1738,17 @@
       <c r="H39">
         <v>0.86919999999999997</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I39">
+        <v>-0.64819149658649067</v>
+      </c>
+      <c r="J39">
+        <v>1.7475728155339799E-2</v>
+      </c>
+      <c r="K39">
+        <v>-5.5983042203856055E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1458,8 +1773,17 @@
       <c r="H40">
         <v>0.72189999999999999</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I40">
+        <v>-0.45057429197461574</v>
+      </c>
+      <c r="J40">
+        <v>1.3698630136986301E-2</v>
+      </c>
+      <c r="K40">
+        <v>-7.5603718663912309E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1484,8 +1808,17 @@
       <c r="H41">
         <v>0.66213333333333302</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I41">
+        <v>-0.77158009082839341</v>
+      </c>
+      <c r="J41">
+        <v>7.8895463510847991E-3</v>
+      </c>
+      <c r="K41">
+        <v>-5.0315072481336911E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1510,8 +1843,17 @@
       <c r="H42">
         <v>0.68626666666666603</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I42">
+        <v>-1.0922647285831217</v>
+      </c>
+      <c r="J42">
+        <v>9.765625E-3</v>
+      </c>
+      <c r="K42">
+        <v>-6.0434340661755248E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1536,8 +1878,17 @@
       <c r="H43">
         <v>0.87493333333333301</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I43">
+        <v>-0.80844795979882622</v>
+      </c>
+      <c r="J43">
+        <v>1.4134275618374499E-2</v>
+      </c>
+      <c r="K43">
+        <v>-4.4186261710197792E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1562,8 +1913,17 @@
       <c r="H44">
         <v>1.02046666666667</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I44">
+        <v>-0.45800269714718267</v>
+      </c>
+      <c r="J44">
+        <v>2.09424083769633E-2</v>
+      </c>
+      <c r="K44">
+        <v>-3.363935401062027E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1588,8 +1948,17 @@
       <c r="H45">
         <v>1.09313333333333</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I45">
+        <v>-0.15741360997816364</v>
+      </c>
+      <c r="J45">
+        <v>7.3746312684365E-3</v>
+      </c>
+      <c r="K45">
+        <v>-2.7701326035333649E-4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1614,8 +1983,17 @@
       <c r="H46">
         <v>1.41163333333333</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I46">
+        <v>0.39541507139340493</v>
+      </c>
+      <c r="J46">
+        <v>3.1481481481481402E-2</v>
+      </c>
+      <c r="K46">
+        <v>5.997567542946091E-4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1640,8 +2018,17 @@
       <c r="H47">
         <v>1.56206666666667</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I47">
+        <v>0.47153451788798445</v>
+      </c>
+      <c r="J47">
+        <v>3.2665964172813401E-2</v>
+      </c>
+      <c r="K47">
+        <v>3.5989995545087158E-4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1666,8 +2053,17 @@
       <c r="H48">
         <v>1.49556666666667</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I48">
+        <v>-0.54949436133908924</v>
+      </c>
+      <c r="J48">
+        <v>2.57400257400257E-2</v>
+      </c>
+      <c r="K48">
+        <v>-3.348262973340988E-6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1692,8 +2088,17 @@
       <c r="H49">
         <v>1.0429999999999999</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I49">
+        <v>0.20606488554812058</v>
+      </c>
+      <c r="J49">
+        <v>1.9975031210986201E-2</v>
+      </c>
+      <c r="K49">
+        <v>1.969415823316337E-5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1718,8 +2123,17 @@
       <c r="H50">
         <v>0.69603333333333295</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I50">
+        <v>-0.23622709411187692</v>
+      </c>
+      <c r="J50">
+        <v>1.6372795969773299E-2</v>
+      </c>
+      <c r="K50">
+        <v>-3.4202958344034518E-4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1744,8 +2158,17 @@
       <c r="H51">
         <v>0.35856666666666698</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I51">
+        <v>-0.25827442198068917</v>
+      </c>
+      <c r="J51">
+        <v>1.9777503090234801E-2</v>
+      </c>
+      <c r="K51">
+        <v>-8.6422543280620124E-5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1770,8 +2193,17 @@
       <c r="H52">
         <v>0.19513333333333299</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I52">
+        <v>-0.11080617643135914</v>
+      </c>
+      <c r="J52">
+        <v>1.4760147601476E-2</v>
+      </c>
+      <c r="K52">
+        <v>8.5777760918159037E-5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1796,8 +2228,17 @@
       <c r="H53">
         <v>0.211466666666667</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I53">
+        <v>-0.45098554790377504</v>
+      </c>
+      <c r="J53">
+        <v>2.3498694516971199E-2</v>
+      </c>
+      <c r="K53">
+        <v>-1.111734640126035E-4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1822,8 +2263,17 @@
       <c r="H54">
         <v>0.20680000000000001</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I54">
+        <v>-0.63557185285154383</v>
+      </c>
+      <c r="J54">
+        <v>2.62008733624454E-2</v>
+      </c>
+      <c r="K54">
+        <v>-3.5051294566921159E-4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1848,8 +2298,17 @@
       <c r="H55">
         <v>0.2235</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I55">
+        <v>-1.1665961251708616</v>
+      </c>
+      <c r="J55">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K55">
+        <v>-1.577632320873115E-4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1874,8 +2333,17 @@
       <c r="H56">
         <v>0.2409</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I56">
+        <v>-1.3018030839655728</v>
+      </c>
+      <c r="J56">
+        <v>1.1644832605531201E-2</v>
+      </c>
+      <c r="K56">
+        <v>-2.2472479926489511E-4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1900,8 +2368,17 @@
       <c r="H57">
         <v>0.29513333333333303</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I57">
+        <v>-0.29714443801410029</v>
+      </c>
+      <c r="J57">
+        <v>4.8309178743961297E-2</v>
+      </c>
+      <c r="K57">
+        <v>3.528988784820301E-4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1926,8 +2403,17 @@
       <c r="H58">
         <v>0.29856666666666698</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I58">
+        <v>-1.2295403405689327</v>
+      </c>
+      <c r="J58">
+        <v>3.7037037037037E-2</v>
+      </c>
+      <c r="K58">
+        <v>9.1374136273481368E-4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1952,8 +2438,17 @@
       <c r="H59">
         <v>0.164566666666667</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I59">
+        <v>0.59650762454328854</v>
+      </c>
+      <c r="J59">
+        <v>7.5367647058823498E-2</v>
+      </c>
+      <c r="K59">
+        <v>1.3480180763077549E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1978,8 +2473,17 @@
       <c r="H60">
         <v>8.1466666666666701E-2</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I60">
+        <v>0.70687699098085066</v>
+      </c>
+      <c r="J60">
+        <v>4.3927648578811297E-2</v>
+      </c>
+      <c r="K60">
+        <v>1.605935065604182E-4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2004,8 +2508,17 @@
       <c r="H61">
         <v>4.6033333333333301E-2</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I61">
+        <v>1.0769419385038572</v>
+      </c>
+      <c r="J61">
+        <v>4.2079207920791999E-2</v>
+      </c>
+      <c r="K61">
+        <v>6.2923208342561372E-4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2030,8 +2543,17 @@
       <c r="H62">
         <v>-6.5333333333333302E-3</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I62">
+        <v>0.90704435165974051</v>
+      </c>
+      <c r="J62">
+        <v>4.7890535917901898E-2</v>
+      </c>
+      <c r="K62">
+        <v>9.7064979468711805E-4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2056,8 +2578,17 @@
       <c r="H63">
         <v>-2.7799999999999998E-2</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I63">
+        <v>-0.55819268078729667</v>
+      </c>
+      <c r="J63">
+        <v>2.6052104208416801E-2</v>
+      </c>
+      <c r="K63">
+        <v>-3.9440385834745272E-4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2082,8 +2613,17 @@
       <c r="H64">
         <v>-8.9166666666666602E-2</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I64">
+        <v>-0.49907933822834333</v>
+      </c>
+      <c r="J64">
+        <v>2.3460410557184699E-2</v>
+      </c>
+      <c r="K64">
+        <v>4.4715460062628559E-4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2108,8 +2648,17 @@
       <c r="H65">
         <v>-0.18606666666666699</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I65">
+        <v>-1.7546190387514933E-2</v>
+      </c>
+      <c r="J65">
+        <v>2.7480916030534298E-2</v>
+      </c>
+      <c r="K65">
+        <v>3.2752679712347287E-5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2134,8 +2683,17 @@
       <c r="H66">
         <v>-0.2581</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I66">
+        <v>3.4209861914876835E-2</v>
+      </c>
+      <c r="J66">
+        <v>5.3596614950634697E-2</v>
+      </c>
+      <c r="K66">
+        <v>2.882257606890813E-4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2160,8 +2718,17 @@
       <c r="H67">
         <v>-0.29809999999999998</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I67">
+        <v>2.5597195684231099E-2</v>
+      </c>
+      <c r="J67">
+        <v>5.2473763118440701E-2</v>
+      </c>
+      <c r="K67">
+        <v>1.387008609905726E-4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2186,8 +2753,17 @@
       <c r="H68">
         <v>-0.3125</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I68">
+        <v>-0.78669130819026589</v>
+      </c>
+      <c r="J68">
+        <v>5.4644808743169397E-2</v>
+      </c>
+      <c r="K68">
+        <v>-3.5014062451619438E-4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2212,8 +2788,17 @@
       <c r="H69">
         <v>-0.32779999999999998</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I69">
+        <v>-0.58786366881710683</v>
+      </c>
+      <c r="J69">
+        <v>4.60431654676259E-2</v>
+      </c>
+      <c r="K69">
+        <v>-6.489656861756972E-5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2238,8 +2823,17 @@
       <c r="H70">
         <v>-0.32996666666666702</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I70">
+        <v>-0.18653714549540285</v>
+      </c>
+      <c r="J70">
+        <v>4.9707602339181201E-2</v>
+      </c>
+      <c r="K70">
+        <v>-2.2181058591941571E-4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2264,8 +2858,17 @@
       <c r="H71">
         <v>-0.329633333333333</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I71">
+        <v>-0.33740333094611208</v>
+      </c>
+      <c r="J71">
+        <v>2.26415094339622E-2</v>
+      </c>
+      <c r="K71">
+        <v>-6.2356504148591146E-4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2290,8 +2893,17 @@
       <c r="H72">
         <v>-0.32879999999999998</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I72">
+        <v>-0.76707744060479333</v>
+      </c>
+      <c r="J72">
+        <v>3.4412955465587002E-2</v>
+      </c>
+      <c r="K72">
+        <v>-5.3731718683229057E-4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2316,8 +2928,17 @@
       <c r="H73">
         <v>-0.32829999999999998</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I73">
+        <v>-0.53674158478586009</v>
+      </c>
+      <c r="J73">
+        <v>3.6789297658862803E-2</v>
+      </c>
+      <c r="K73">
+        <v>-2.351400909176531E-4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2342,8 +2963,17 @@
       <c r="H74">
         <v>-0.32523333333333299</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I74">
+        <v>-0.34889440008535477</v>
+      </c>
+      <c r="J74">
+        <v>2.0338983050847401E-2</v>
+      </c>
+      <c r="K74">
+        <v>-3.0821479703739047E-4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2368,8 +2998,17 @@
       <c r="H75">
         <v>-0.31950000000000001</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I75">
+        <v>-0.37082727927173348</v>
+      </c>
+      <c r="J75">
+        <v>8.7260034904013007E-3</v>
+      </c>
+      <c r="K75">
+        <v>-3.763885146213365E-4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2394,8 +3033,17 @@
       <c r="H76">
         <v>-0.31533333333333302</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I76">
+        <v>-1.3402601749008547</v>
+      </c>
+      <c r="J76">
+        <v>1.2711864406779599E-2</v>
+      </c>
+      <c r="K76">
+        <v>5.0435119552246334E-4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2420,426 +3068,14 @@
       <c r="H77">
         <v>-0.30853333333333299</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>77</v>
-      </c>
-      <c r="B78">
-        <v>-0.28019915401591788</v>
-      </c>
-      <c r="C78">
-        <v>0.20084510841024894</v>
-      </c>
-      <c r="D78">
-        <v>-0.76382238981796036</v>
-      </c>
-      <c r="E78">
-        <v>-6.1445396637755039</v>
-      </c>
-      <c r="F78">
-        <v>0.57065066463133363</v>
-      </c>
-      <c r="G78">
-        <v>0.81377384650301909</v>
-      </c>
-      <c r="H78">
-        <v>-0.31709999999999999</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>78</v>
-      </c>
-      <c r="B79">
-        <v>-0.65226457078506428</v>
-      </c>
-      <c r="C79">
-        <v>0.17564401652634842</v>
-      </c>
-      <c r="D79">
-        <v>-0.80104281288913626</v>
-      </c>
-      <c r="E79">
-        <v>2.6504383993410556</v>
-      </c>
-      <c r="F79">
-        <v>0.86364571411534641</v>
-      </c>
-      <c r="G79">
-        <v>4.8769374845460511E-2</v>
-      </c>
-      <c r="H79">
-        <v>-0.39673333333333299</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>79</v>
-      </c>
-      <c r="B80">
-        <v>0.42423820487238117</v>
-      </c>
-      <c r="C80">
-        <v>-0.67390245402475557</v>
-      </c>
-      <c r="D80">
-        <v>-0.34923849325241463</v>
-      </c>
-      <c r="E80">
-        <v>4.0674186187288797E-2</v>
-      </c>
-      <c r="F80">
-        <v>0.5149501797959033</v>
-      </c>
-      <c r="G80">
-        <v>-1.2442150344096121</v>
-      </c>
-      <c r="H80">
-        <v>-0.40296666666666697</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>80</v>
-      </c>
-      <c r="B81">
-        <v>-2.3207955808161387</v>
-      </c>
-      <c r="C81">
-        <v>-0.98801101690150972</v>
-      </c>
-      <c r="D81">
-        <v>-2.0889672616276584</v>
-      </c>
-      <c r="E81">
-        <v>1.0838898267620607</v>
-      </c>
-      <c r="F81">
-        <v>0.66439946469269984</v>
-      </c>
-      <c r="G81">
-        <v>1.4180660117789627</v>
-      </c>
-      <c r="H81">
-        <v>-0.40550000000000003</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>81</v>
-      </c>
-      <c r="B82">
-        <v>-12.656259050331755</v>
-      </c>
-      <c r="C82">
-        <v>-7.5576438100001724</v>
-      </c>
-      <c r="D82">
-        <v>-10.866269241233567</v>
-      </c>
-      <c r="E82">
-        <v>-17.373826129368354</v>
-      </c>
-      <c r="F82">
-        <v>0.95679457037354254</v>
-      </c>
-      <c r="G82">
-        <v>-1.1361668157766234</v>
-      </c>
-      <c r="H82">
-        <v>-0.30066666666666703</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>82</v>
-      </c>
-      <c r="B83">
-        <v>9.9303788046067893</v>
-      </c>
-      <c r="C83">
-        <v>5.8838168294373645</v>
-      </c>
-      <c r="D83">
-        <v>10.092923878939928</v>
-      </c>
-      <c r="E83">
-        <v>-7.4867585316546865</v>
-      </c>
-      <c r="F83">
-        <v>-1.4985114394157506</v>
-      </c>
-      <c r="G83">
-        <v>4.678991526422287</v>
-      </c>
-      <c r="H83">
-        <v>-0.471733333333333</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>83</v>
-      </c>
-      <c r="B84">
-        <v>-2.0582094706442149</v>
-      </c>
-      <c r="C84">
-        <v>2.0379400851384162</v>
-      </c>
-      <c r="D84">
-        <v>-0.28966907113453999</v>
-      </c>
-      <c r="E84">
-        <v>-2.41106312931106</v>
-      </c>
-      <c r="F84">
-        <v>0.85751766219104297</v>
-      </c>
-      <c r="G84">
-        <v>-3.9482714084988446</v>
-      </c>
-      <c r="H84">
-        <v>-0.52270000000000005</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>84</v>
-      </c>
-      <c r="B85">
-        <v>-3.9491045735035186</v>
-      </c>
-      <c r="C85">
-        <v>-1.3692337341849452</v>
-      </c>
-      <c r="D85">
-        <v>-2.8879761567618516</v>
-      </c>
-      <c r="E85">
-        <v>-2.1439093510763314</v>
-      </c>
-      <c r="F85">
-        <v>1.4559344540072239</v>
-      </c>
-      <c r="G85">
-        <v>-0.91926053621301707</v>
-      </c>
-      <c r="H85">
-        <v>-0.54246666666666699</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>85</v>
-      </c>
-      <c r="B86">
-        <v>3.3780216823151932</v>
-      </c>
-      <c r="C86">
-        <v>3.481337010414336</v>
-      </c>
-      <c r="D86">
-        <v>1.9334843351753079</v>
-      </c>
-      <c r="E86">
-        <v>-9.7152590606436888</v>
-      </c>
-      <c r="F86">
-        <v>-1.7189966502506593E-2</v>
-      </c>
-      <c r="G86">
-        <v>-0.25078696920914467</v>
-      </c>
-      <c r="H86">
-        <v>-0.54039999999999999</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>86</v>
-      </c>
-      <c r="B87">
-        <v>3.2460604330381102</v>
-      </c>
-      <c r="C87">
-        <v>-1.488530487301432</v>
-      </c>
-      <c r="D87">
-        <v>-1.3833558592700683</v>
-      </c>
-      <c r="E87">
-        <v>-5.7010250486292762</v>
-      </c>
-      <c r="F87">
-        <v>2.110219383723333</v>
-      </c>
-      <c r="G87">
-        <v>2.9475280906294894</v>
-      </c>
-      <c r="H87">
-        <v>-0.54579999999999995</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>87</v>
-      </c>
-      <c r="B88">
-        <v>-9.3112235654643882E-2</v>
-      </c>
-      <c r="C88">
-        <v>6.6543115540298459E-2</v>
-      </c>
-      <c r="D88">
-        <v>-1.4972663096027645</v>
-      </c>
-      <c r="E88">
-        <v>-2.6282992235813936</v>
-      </c>
-      <c r="F88">
-        <v>1.3645895384517992</v>
-      </c>
-      <c r="G88">
-        <v>-2.6483042145193214</v>
-      </c>
-      <c r="H88">
-        <v>-0.56640000000000001</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>88</v>
-      </c>
-      <c r="B89">
-        <v>2.0114957883019997</v>
-      </c>
-      <c r="C89">
-        <v>4.1257418866007356</v>
-      </c>
-      <c r="D89">
-        <v>-0.16053302981845263</v>
-      </c>
-      <c r="E89">
-        <v>-2.0958464201579545</v>
-      </c>
-      <c r="F89">
-        <v>1.3074027796698751</v>
-      </c>
-      <c r="G89">
-        <v>-1.393572539418596</v>
-      </c>
-      <c r="H89">
-        <v>-0.52900000000000003</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>89</v>
-      </c>
-      <c r="B90">
-        <v>0.43633076893138423</v>
-      </c>
-      <c r="C90">
-        <v>0.77649087229610814</v>
-      </c>
-      <c r="D90">
-        <v>-2.1531205353840051</v>
-      </c>
-      <c r="E90">
-        <v>-12.479674667035511</v>
-      </c>
-      <c r="F90">
-        <v>1.2967391613974755</v>
-      </c>
-      <c r="G90">
-        <v>2.1767146365600771</v>
-      </c>
-      <c r="H90">
-        <v>-0.35759999999999997</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>90</v>
-      </c>
-      <c r="B91">
-        <v>0.85392101403158449</v>
-      </c>
-      <c r="C91">
-        <v>1.8129926639230689</v>
-      </c>
-      <c r="D91">
-        <v>-0.59656765060935868</v>
-      </c>
-      <c r="E91">
-        <v>-5.1438051886514131</v>
-      </c>
-      <c r="F91">
-        <v>0.79353892004254689</v>
-      </c>
-      <c r="G91">
-        <v>-1.1271505722434334</v>
-      </c>
-      <c r="H91">
-        <v>0.48073333333333301</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>91</v>
-      </c>
-      <c r="B92">
-        <v>-1.0385473995065695</v>
-      </c>
-      <c r="C92">
-        <v>-4.2144417255863118</v>
-      </c>
-      <c r="D92">
-        <v>-3.3593074732953028</v>
-      </c>
-      <c r="E92">
-        <v>-5.7676475668597504</v>
-      </c>
-      <c r="F92">
-        <v>2.6090515613850229</v>
-      </c>
-      <c r="G92">
-        <v>0.27299229216426868</v>
-      </c>
-      <c r="H92">
-        <v>1.77213333333333</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>92</v>
-      </c>
-      <c r="B93" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C93" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D93">
-        <v>-1.7538041294469622</v>
-      </c>
-      <c r="E93">
-        <v>-2.4769089679805347</v>
-      </c>
-      <c r="F93">
-        <v>1.5133534152904637</v>
-      </c>
-      <c r="G93" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H93">
-        <v>2.6319333333333299</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>93</v>
+      <c r="I77">
+        <v>-1.1576799377853197</v>
+      </c>
+      <c r="J77">
+        <v>1.89655172413793E-2</v>
+      </c>
+      <c r="K77">
+        <v>-2.311486735708531E-4</v>
       </c>
     </row>
   </sheetData>
